--- a/baocao_emso.xlsx
+++ b/baocao_emso.xlsx
@@ -772,7 +772,11 @@
           <t>Đăng nhập thành công: Đăng nhập bằng tài khoản gmail(với tài khoản chưa có sẵn đã được đồng bộ)</t>
         </is>
       </c>
-      <c r="B16" s="30" t="n"/>
+      <c r="B16" s="30" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
           <t>đang gặp chút vấn đề về code</t>

--- a/baocao_emso.xlsx
+++ b/baocao_emso.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -66,6 +66,12 @@
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -601,8 +607,8 @@
   </sheetPr>
   <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -610,8 +616,9 @@
     <col width="70.88671875" customWidth="1" style="17" min="1" max="1"/>
     <col width="24.33203125" customWidth="1" style="33" min="2" max="2"/>
     <col width="33.44140625" customWidth="1" style="34" min="3" max="3"/>
-    <col width="8.88671875" customWidth="1" style="34" min="4" max="5"/>
-    <col width="17.109375" customWidth="1" style="34" min="6" max="6"/>
+    <col width="8.88671875" customWidth="1" style="34" min="4" max="4"/>
+    <col width="11.44140625" customWidth="1" style="34" min="5" max="5"/>
+    <col width="18.6640625" customWidth="1" style="34" min="6" max="6"/>
     <col width="17.5546875" customWidth="1" style="34" min="7" max="7"/>
     <col width="8.88671875" customWidth="1" style="34" min="8" max="8"/>
   </cols>
@@ -752,6 +759,16 @@
       </c>
       <c r="B14" s="28" t="n"/>
       <c r="C14" s="27" t="n"/>
+      <c r="E14" s="22" t="inlineStr">
+        <is>
+          <t>Flsash Sale 1</t>
+        </is>
+      </c>
+      <c r="F14" s="22" t="inlineStr">
+        <is>
+          <t>FLS VT1 - 06012024</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="27" customHeight="1" s="34">
       <c r="A15" s="29" t="inlineStr">
@@ -765,6 +782,16 @@
         </is>
       </c>
       <c r="C15" s="22" t="n"/>
+      <c r="E15" s="22" t="inlineStr">
+        <is>
+          <t>TTKM 2</t>
+        </is>
+      </c>
+      <c r="F15" s="22" t="inlineStr">
+        <is>
+          <t>CTKM VT2 - 05012024</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="27" customHeight="1" s="34">
       <c r="A16" s="29" t="inlineStr">
@@ -782,6 +809,16 @@
           <t>đang gặp chút vấn đề về code</t>
         </is>
       </c>
+      <c r="E16" s="22" t="inlineStr">
+        <is>
+          <t>TTKM 3</t>
+        </is>
+      </c>
+      <c r="F16" s="22" t="inlineStr">
+        <is>
+          <t>CTKM VT3 - 05012024</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
@@ -791,6 +828,16 @@
       </c>
       <c r="B17" s="28" t="n"/>
       <c r="C17" s="27" t="n"/>
+      <c r="E17" s="22" t="inlineStr">
+        <is>
+          <t>TTKM 4</t>
+        </is>
+      </c>
+      <c r="F17" s="22" t="inlineStr">
+        <is>
+          <t>CTKM VT4 - 05012024</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="27" customHeight="1" s="34">
       <c r="A18" s="29" t="inlineStr">
@@ -804,6 +851,16 @@
         </is>
       </c>
       <c r="C18" s="22" t="n"/>
+      <c r="E18" s="22" t="inlineStr">
+        <is>
+          <t>TTKM 5</t>
+        </is>
+      </c>
+      <c r="F18" s="22" t="inlineStr">
+        <is>
+          <t>CTKM VT5 - 05012024</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="27" customHeight="1" s="34">
       <c r="A19" s="29" t="inlineStr">
@@ -817,6 +874,16 @@
         </is>
       </c>
       <c r="C19" s="22" t="n"/>
+      <c r="E19" s="22" t="inlineStr">
+        <is>
+          <t>TTKM 6</t>
+        </is>
+      </c>
+      <c r="F19" s="22" t="inlineStr">
+        <is>
+          <t>CTKM VT6 - 06012024</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="29" t="inlineStr">

--- a/baocao_emso.xlsx
+++ b/baocao_emso.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -66,12 +66,6 @@
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -608,7 +602,7 @@
   <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -766,7 +760,7 @@
       </c>
       <c r="F14" s="22" t="inlineStr">
         <is>
-          <t>FLS VT1 - 06012024</t>
+          <t>FLS VT1 - 27012024</t>
         </is>
       </c>
     </row>
@@ -789,7 +783,7 @@
       </c>
       <c r="F15" s="22" t="inlineStr">
         <is>
-          <t>CTKM VT2 - 05012024</t>
+          <t>CTKM VT2 - 27012024</t>
         </is>
       </c>
     </row>
@@ -816,7 +810,7 @@
       </c>
       <c r="F16" s="22" t="inlineStr">
         <is>
-          <t>CTKM VT3 - 05012024</t>
+          <t>CTKM VT3 - 27012024</t>
         </is>
       </c>
     </row>
@@ -835,7 +829,7 @@
       </c>
       <c r="F17" s="22" t="inlineStr">
         <is>
-          <t>CTKM VT4 - 05012024</t>
+          <t>CTKM VT4 - 27012024</t>
         </is>
       </c>
     </row>
@@ -858,7 +852,7 @@
       </c>
       <c r="F18" s="22" t="inlineStr">
         <is>
-          <t>CTKM VT5 - 05012024</t>
+          <t>CTKM VT5 - 27012024</t>
         </is>
       </c>
     </row>
@@ -881,7 +875,7 @@
       </c>
       <c r="F19" s="22" t="inlineStr">
         <is>
-          <t>CTKM VT6 - 06012024</t>
+          <t>CTKM VT6 - 27012024</t>
         </is>
       </c>
     </row>

--- a/baocao_emso.xlsx
+++ b/baocao_emso.xlsx
@@ -760,7 +760,7 @@
       </c>
       <c r="F14" s="22" t="inlineStr">
         <is>
-          <t>FLS VT1 - 27012024</t>
+          <t>FLS VT1 - 01022024</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F15" s="22" t="inlineStr">
         <is>
-          <t>CTKM VT2 - 27012024</t>
+          <t>CTKM VT2 - 01022024</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="F16" s="22" t="inlineStr">
         <is>
-          <t>CTKM VT3 - 27012024</t>
+          <t>CTKM VT3 - 31012024</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="F17" s="22" t="inlineStr">
         <is>
-          <t>CTKM VT4 - 27012024</t>
+          <t>CTKM VT4 - 31012024</t>
         </is>
       </c>
     </row>
@@ -852,7 +852,7 @@
       </c>
       <c r="F18" s="22" t="inlineStr">
         <is>
-          <t>CTKM VT5 - 27012024</t>
+          <t>CTKM VT5 - 31012024</t>
         </is>
       </c>
     </row>
@@ -875,7 +875,7 @@
       </c>
       <c r="F19" s="22" t="inlineStr">
         <is>
-          <t>CTKM VT6 - 27012024</t>
+          <t>CTKM VT6 - 31012024</t>
         </is>
       </c>
     </row>

--- a/baocao_emso.xlsx
+++ b/baocao_emso.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
